--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H2">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I2">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J2">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N2">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P2">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q2">
-        <v>11.08988063178315</v>
+        <v>0.6007236374577777</v>
       </c>
       <c r="R2">
-        <v>11.08988063178315</v>
+        <v>5.40651273712</v>
       </c>
       <c r="S2">
-        <v>0.8077017245068548</v>
+        <v>0.03743832448859264</v>
       </c>
       <c r="T2">
-        <v>0.8077017245068548</v>
+        <v>0.03743832448859263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H3">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I3">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J3">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217198349475714</v>
+        <v>0.240846</v>
       </c>
       <c r="N3">
-        <v>0.217198349475714</v>
+        <v>0.7225379999999999</v>
       </c>
       <c r="O3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="P3">
-        <v>0.1181748050308376</v>
+        <v>0.1235974353298672</v>
       </c>
       <c r="Q3">
-        <v>1.486172643912796</v>
+        <v>0.08471894529399998</v>
       </c>
       <c r="R3">
-        <v>1.486172643912796</v>
+        <v>0.7624705076459999</v>
       </c>
       <c r="S3">
-        <v>0.1082414001790988</v>
+        <v>0.005279857768991199</v>
       </c>
       <c r="T3">
-        <v>0.1082414001790988</v>
+        <v>0.005279857768991198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H4">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I4">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J4">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.62074290559161</v>
+        <v>1.707786666666667</v>
       </c>
       <c r="N4">
-        <v>1.62074290559161</v>
+        <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701329</v>
       </c>
       <c r="P4">
-        <v>0.8818251949691625</v>
+        <v>0.8764025646701328</v>
       </c>
       <c r="Q4">
-        <v>1.017727726088964</v>
+        <v>11.732622484</v>
       </c>
       <c r="R4">
-        <v>1.017727726088964</v>
+        <v>105.593602356</v>
       </c>
       <c r="S4">
-        <v>0.07412347046230768</v>
+        <v>0.7312010053691665</v>
       </c>
       <c r="T4">
-        <v>0.07412347046230768</v>
+        <v>0.7312010053691665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,309 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.870075</v>
+      </c>
+      <c r="H5">
+        <v>20.610225</v>
+      </c>
+      <c r="I5">
+        <v>0.8343209329201149</v>
+      </c>
+      <c r="J5">
+        <v>0.8343209329201149</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.240846</v>
+      </c>
+      <c r="N5">
+        <v>0.7225379999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.1235974353298672</v>
+      </c>
+      <c r="P5">
+        <v>0.1235974353298672</v>
+      </c>
+      <c r="Q5">
+        <v>1.65463008345</v>
+      </c>
+      <c r="R5">
+        <v>14.89167075105</v>
+      </c>
+      <c r="S5">
+        <v>0.1031199275509484</v>
+      </c>
+      <c r="T5">
+        <v>0.1031199275509484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.207314</v>
+      </c>
+      <c r="I6">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J6">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.707786666666667</v>
+      </c>
+      <c r="N6">
+        <v>5.12336</v>
+      </c>
+      <c r="O6">
+        <v>0.8764025646701329</v>
+      </c>
+      <c r="P6">
+        <v>0.8764025646701328</v>
+      </c>
+      <c r="Q6">
+        <v>1.256540472782222</v>
+      </c>
+      <c r="R6">
+        <v>11.30886425504</v>
+      </c>
+      <c r="S6">
+        <v>0.07831016963499607</v>
+      </c>
+      <c r="T6">
+        <v>0.07831016963499605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.207314</v>
+      </c>
+      <c r="I7">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J7">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.240846</v>
+      </c>
+      <c r="N7">
+        <v>0.7225379999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1235974353298672</v>
+      </c>
+      <c r="P7">
+        <v>0.1235974353298672</v>
+      </c>
+      <c r="Q7">
+        <v>0.177207582548</v>
+      </c>
+      <c r="R7">
+        <v>1.594868242932</v>
+      </c>
+      <c r="S7">
+        <v>0.01104393861601191</v>
+      </c>
+      <c r="T7">
+        <v>0.01104393861601191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.627939028810661</v>
-      </c>
-      <c r="H5">
-        <v>0.627939028810661</v>
-      </c>
-      <c r="I5">
-        <v>0.08405687531404654</v>
-      </c>
-      <c r="J5">
-        <v>0.08405687531404654</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.217198349475714</v>
-      </c>
-      <c r="N5">
-        <v>0.217198349475714</v>
-      </c>
-      <c r="O5">
-        <v>0.1181748050308376</v>
-      </c>
-      <c r="P5">
-        <v>0.1181748050308376</v>
-      </c>
-      <c r="Q5">
-        <v>0.1363873206290584</v>
-      </c>
-      <c r="R5">
-        <v>0.1363873206290584</v>
-      </c>
-      <c r="S5">
-        <v>0.009933404851738877</v>
-      </c>
-      <c r="T5">
-        <v>0.009933404851738877</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.830188</v>
+      </c>
+      <c r="I8">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J8">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.707786666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.12336</v>
+      </c>
+      <c r="O8">
+        <v>0.8764025646701329</v>
+      </c>
+      <c r="P8">
+        <v>0.8764025646701328</v>
+      </c>
+      <c r="Q8">
+        <v>0.4725946657422222</v>
+      </c>
+      <c r="R8">
+        <v>4.25335199168</v>
+      </c>
+      <c r="S8">
+        <v>0.02945306517737762</v>
+      </c>
+      <c r="T8">
+        <v>0.02945306517737762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.830188</v>
+      </c>
+      <c r="I9">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J9">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.240846</v>
+      </c>
+      <c r="N9">
+        <v>0.7225379999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1235974353298672</v>
+      </c>
+      <c r="P9">
+        <v>0.1235974353298672</v>
+      </c>
+      <c r="Q9">
+        <v>0.066649153016</v>
+      </c>
+      <c r="R9">
+        <v>0.5998423771439999</v>
+      </c>
+      <c r="S9">
+        <v>0.004153711393915725</v>
+      </c>
+      <c r="T9">
+        <v>0.004153711393915725</v>
       </c>
     </row>
   </sheetData>
